--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3002487.914209364</v>
+        <v>2999944.139542706</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8533878.48082264</v>
+        <v>8533878.480822641</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.563992198997</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83561175645087</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.1050195542546</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587339</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602295</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>219.3115525724255</v>
+        <v>263.5639921989974</v>
       </c>
       <c r="W2" t="n">
-        <v>263.563992198997</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.563992198997</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.633673122911</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.2002655707243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.164217801745</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802707</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
@@ -801,10 +801,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>203.2813149924033</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704494</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7303985328715</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.5639921989974</v>
       </c>
       <c r="V4" t="n">
-        <v>238.5160576730518</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.563992198997</v>
+        <v>259.7643409249231</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>259.6326967715751</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>77.09393081742209</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>16.53465429422021</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.28688718947221</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285051</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>345.1247515876432</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>220.8920305126485</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>108.1854048069372</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>39.52129633182762</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,16 +2087,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717412</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>30.97191586387568</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300.2766385228368</v>
+        <v>419.2454232255671</v>
       </c>
       <c r="C2" t="n">
-        <v>300.2766385228368</v>
+        <v>419.2454232255671</v>
       </c>
       <c r="D2" t="n">
-        <v>300.2766385228368</v>
+        <v>419.2454232255671</v>
       </c>
       <c r="E2" t="n">
-        <v>300.2766385228368</v>
+        <v>419.2454232255671</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637518</v>
+        <v>412.2999224763636</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591976</v>
+        <v>399.3346580759082</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591976</v>
+        <v>137.6124161019137</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701051</v>
+        <v>49.14994660701088</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164402</v>
+        <v>141.9503658164411</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965836</v>
+        <v>293.9792536780725</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173914</v>
+        <v>495.8504424173908</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238171</v>
+        <v>704.5447722238172</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381112</v>
+        <v>888.273648738112</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266318</v>
+        <v>1010.580993266319</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795988</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795988</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795988</v>
+        <v>899.9120886341417</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795988</v>
+        <v>685.4716779720292</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795988</v>
+        <v>685.4716779720292</v>
       </c>
       <c r="V2" t="n">
-        <v>832.7291480157601</v>
+        <v>419.2454232255671</v>
       </c>
       <c r="W2" t="n">
-        <v>566.5028932692985</v>
+        <v>419.2454232255671</v>
       </c>
       <c r="X2" t="n">
-        <v>300.2766385228368</v>
+        <v>419.2454232255671</v>
       </c>
       <c r="Y2" t="n">
-        <v>300.2766385228368</v>
+        <v>419.2454232255671</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="C3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="D3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="E3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957361</v>
+        <v>95.64621773957401</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557047</v>
+        <v>242.2253570557056</v>
       </c>
       <c r="M3" t="n">
-        <v>432.6331671185462</v>
+        <v>432.6331671185476</v>
       </c>
       <c r="N3" t="n">
-        <v>642.4891502533768</v>
+        <v>648.1818400501571</v>
       </c>
       <c r="O3" t="n">
-        <v>812.2465809289007</v>
+        <v>909.1101923271646</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280448</v>
+        <v>1026.02243028045</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795988</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158893</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158893</v>
+        <v>905.605243743722</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158893</v>
+        <v>708.7930347737516</v>
       </c>
       <c r="U3" t="n">
-        <v>807.7359650977505</v>
+        <v>480.6571377126096</v>
       </c>
       <c r="V3" t="n">
-        <v>807.7359650977505</v>
+        <v>480.6571377126096</v>
       </c>
       <c r="W3" t="n">
-        <v>553.4986083695489</v>
+        <v>226.419780984408</v>
       </c>
       <c r="X3" t="n">
-        <v>345.6471081640161</v>
+        <v>226.419780984408</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.8868093990622</v>
+        <v>21.0851193759198</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.1148523706486</v>
+        <v>190.0213023038267</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1148523706486</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9982129583129</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="E4" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="F4" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591976</v>
+        <v>21.0851193759198</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953604</v>
+        <v>126.3272391953609</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735289</v>
+        <v>316.5273535735296</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559529</v>
+        <v>527.455829255954</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568263</v>
+        <v>738.8035136568276</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005211</v>
+        <v>918.0010123005227</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485823</v>
+        <v>1047.814747485825</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795988</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795988</v>
+        <v>925.4341625632126</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795988</v>
+        <v>718.6357802067768</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795988</v>
+        <v>718.6357802067768</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.255968795988</v>
+        <v>452.4095254603147</v>
       </c>
       <c r="V4" t="n">
-        <v>813.3306580151275</v>
+        <v>452.4095254603147</v>
       </c>
       <c r="W4" t="n">
-        <v>547.1044032686659</v>
+        <v>190.0213023038267</v>
       </c>
       <c r="X4" t="n">
-        <v>319.1148523706486</v>
+        <v>190.0213023038267</v>
       </c>
       <c r="Y4" t="n">
-        <v>319.1148523706486</v>
+        <v>190.0213023038267</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>419.7330060626393</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="X5" t="n">
-        <v>255.7225503044907</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044907</v>
+        <v>419.7330060626393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.2061662380652</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>429.7531369569381</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>280.8187272956869</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313626</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>713.6562631339676</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="W6" t="n">
-        <v>1019.817965208552</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="X6" t="n">
-        <v>811.966465003019</v>
+        <v>273.422797072583</v>
       </c>
       <c r="Y6" t="n">
-        <v>604.2061662380652</v>
+        <v>273.422797072583</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.4144760322547</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>483.4782931043478</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>333.3616536920121</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>185.4485601096189</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>38.55861261170858</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>834.0629408624944</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="C8" t="n">
-        <v>1114.902695549579</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>1114.902695549579</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>1114.902695549579</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>703.9167907599715</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1524.120707855957</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4869,43 +4869,43 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277318</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453387</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453387</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>215.8238677453387</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,58 +5738,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6227,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,19 +6841,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6974,13 +6974,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.6145409888043</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2415.678320081396</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2232.8234857363</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2013.222020759241</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1724.146794103439</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1469.462305897552</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.045135860591</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>952.0555849625741</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.263005819044</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7673,22 +7673,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7982,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.050829008598697</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.050829008595741</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518703</v>
+        <v>60.60994937518677</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.12386678936285</v>
+        <v>2.123866789362637</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.750191713917559</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.09184000149804</v>
       </c>
       <c r="P3" t="n">
-        <v>97.84203171541682</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211368</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>35.91627445172531</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>100.7734165143962</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856724</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.40333084624601</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>749708.7812185186</v>
+        <v>749708.7812185185</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
@@ -26338,16 +26338,16 @@
         <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163103</v>
+        <v>679693.2761163114</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389980637</v>
+        <v>373.9475389971205</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491439</v>
+        <v>68959.93717491424</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395615114</v>
+        <v>38.57632395609226</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756974</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077619</v>
+        <v>246846.0156077616</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731858</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731894</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732005</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731995</v>
+        <v>8117.312426731933</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731992</v>
+        <v>8117.312426731949</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731988</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731994</v>
+        <v>8117.312426732056</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426732009</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731947</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360365</v>
+        <v>63030.8969336037</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-291684.6842730348</v>
+        <v>-291684.6842730359</v>
       </c>
       <c r="C6" t="n">
-        <v>387709.8862431452</v>
+        <v>387709.8862431461</v>
       </c>
       <c r="D6" t="n">
-        <v>79501.36787698889</v>
+        <v>79501.36787698876</v>
       </c>
       <c r="E6" t="n">
-        <v>69349.32586132032</v>
+        <v>69314.58793588467</v>
       </c>
       <c r="F6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="G6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="H6" t="n">
-        <v>576834.7674858664</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="I6" t="n">
-        <v>576834.7674858664</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="J6" t="n">
-        <v>507874.8303109523</v>
+        <v>507840.0923855167</v>
       </c>
       <c r="K6" t="n">
-        <v>576796.1911619104</v>
+        <v>576761.4532364748</v>
       </c>
       <c r="L6" t="n">
-        <v>481452.121348297</v>
+        <v>481417.3834228608</v>
       </c>
       <c r="M6" t="n">
-        <v>444227.47375694</v>
+        <v>444192.735831504</v>
       </c>
       <c r="N6" t="n">
-        <v>576834.7674858664</v>
+        <v>576800.0295604306</v>
       </c>
       <c r="O6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.0295604311</v>
       </c>
       <c r="P6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.029560431</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726895</v>
+        <v>613.6975324726906</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.563992198997</v>
+        <v>263.5639921989974</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726895</v>
+        <v>613.6975324726906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967887055</v>
+        <v>0.3574812967877961</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.563992198997</v>
+        <v>263.5639921989974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149887802509185</v>
+        <v>0.1498878025088288</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989971</v>
+        <v>263.5639921989972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025089576</v>
+        <v>0.1498878025088288</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.563992198997</v>
+        <v>263.5639921989974</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149887802509185</v>
+        <v>0.1498878025088288</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.3120535427145</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396428</v>
+        <v>55.10333088538812</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587341</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602296</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554914</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>108.4407058977094</v>
+        <v>64.18826627113748</v>
       </c>
       <c r="W2" t="n">
-        <v>85.67697651841604</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.1671084794721</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.89951052695633</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27473,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928078</v>
+        <v>99.48674643928075</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225834</v>
+        <v>43.94827785225827</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072416</v>
       </c>
       <c r="S3" t="n">
-        <v>147.164217801745</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802707</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2.401380784901079</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573037</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
         <v>122.1699595597229</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404809</v>
+        <v>15.11777503404795</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704495</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436559</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>22.69467346577483</v>
       </c>
       <c r="V4" t="n">
-        <v>13.62158565077621</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.95900613759403</v>
+        <v>26.75865741166791</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>105.6401949994325</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>89.43925283244525</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>235.1603288666994</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5967798490744</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081341</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>66.42295118531075</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>106.8602279574864</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.3375935296538</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.482838568691699e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-5.64683493107423e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-3.988171346171079e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28327,22 +28327,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.802208305621615e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,19 +28381,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,22 +28849,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29095,10 +29095,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-4.482838568691699e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>9.641133868265976e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684177</v>
+        <v>2.467125758684181</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612434</v>
+        <v>25.26645167612438</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167183</v>
+        <v>95.113865811672</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611214</v>
+        <v>209.3942148611217</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262227</v>
+        <v>313.8276482262232</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635536</v>
+        <v>389.3309481635543</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745533</v>
+        <v>433.2056958745541</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364148</v>
+        <v>440.2154169364155</v>
       </c>
       <c r="O2" t="n">
-        <v>415.682935173499</v>
+        <v>415.6829351734997</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059833</v>
+        <v>354.7757680059839</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731061</v>
+        <v>266.4218267731065</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389451</v>
+        <v>154.9755884389454</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601574</v>
+        <v>56.21962822601584</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300863999</v>
+        <v>10.79984300864001</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947341</v>
+        <v>0.1973700606947345</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752577</v>
+        <v>1.32002865475258</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721569</v>
+        <v>12.74869779721571</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915673</v>
+        <v>45.44835499915681</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773038</v>
+        <v>124.7137598773041</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457265</v>
+        <v>213.1556797457269</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628349</v>
+        <v>286.6141164628354</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976158</v>
+        <v>334.4651551976163</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235662</v>
+        <v>343.3174526235668</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419433</v>
+        <v>314.0683966419438</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641128</v>
+        <v>252.0675770641133</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592939</v>
+        <v>168.5004998592942</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191884</v>
+        <v>81.95756858191898</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209282</v>
+        <v>24.51895330209286</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550958</v>
+        <v>5.320641814550966</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424856</v>
+        <v>0.0868439904442487</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508129</v>
+        <v>1.10666768150813</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135914</v>
+        <v>9.83928175013593</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753537</v>
+        <v>33.28051536753542</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262468</v>
+        <v>78.24140508262482</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606717</v>
+        <v>128.5746633606718</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943994</v>
+        <v>164.5313023943997</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840424</v>
+        <v>173.4751893840426</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166031</v>
+        <v>169.3503371166034</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735308</v>
+        <v>156.4224464735311</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707649</v>
+        <v>133.8464257707651</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337613</v>
+        <v>92.66832740337627</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672002</v>
+        <v>49.75980320672011</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410074</v>
+        <v>19.28619950410078</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625639</v>
+        <v>4.728489184625647</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862527</v>
+        <v>0.06036369171862536</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.3483103344351</v>
+        <v>28.34831033443544</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124212</v>
+        <v>93.73779718124263</v>
       </c>
       <c r="L2" t="n">
-        <v>154.6153622021651</v>
+        <v>153.5645331935671</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472806</v>
+        <v>203.9102916558771</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398239</v>
+        <v>210.8023533398246</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518123</v>
+        <v>185.584723751813</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507138</v>
+        <v>123.5427722507143</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865666</v>
+        <v>44.11613689865706</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136754</v>
+        <v>75.31424077136791</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829607</v>
+        <v>148.0597366829612</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755975</v>
+        <v>192.331121275598</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402329</v>
+        <v>217.725932254151</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974989</v>
+        <v>263.5639921989974</v>
       </c>
       <c r="P3" t="n">
-        <v>215.9352013651994</v>
+        <v>118.093169649783</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327242</v>
+        <v>28.51872577327271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347888</v>
+        <v>106.305171534789</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547156</v>
+        <v>192.1213276547159</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458829</v>
+        <v>213.0590663458832</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958317</v>
+        <v>213.482509495832</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875705</v>
+        <v>181.0075743875707</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356584</v>
+        <v>131.1249850356586</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.50628415168174</v>
+        <v>6.506284151681882</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819418</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>285.5958035752576</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060415</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
